--- a/ProjectPlan/Plan.xlsx
+++ b/ProjectPlan/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrainingXtenITCompCompany\ProjectAutomatedVoting System for IPL\ProjectPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373B282-1F30-404D-86BE-059EF581A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FED39-A75E-4443-95F8-CEF04471D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA6DE49A-ACDE-4639-807E-06FBE40E0D79}"/>
   </bookViews>
@@ -124,14 +124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +450,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,87 +463,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
